--- a/1. Linear Regression/BloodPressureData.predictions.xlsx
+++ b/1. Linear Regression/BloodPressureData.predictions.xlsx
@@ -31,7 +31,7 @@
     <t>Systolic pressure after treatment (mm Hg)</t>
   </si>
   <si>
-    <t>Predicted systolic pressure after treatment (mm Hg)</t>
+    <t>Prediction (mm Hg)</t>
   </si>
 </sst>
 </file>
